--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAPS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAPS\Desktop\excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" tabRatio="499" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,35 @@
     <sheet name="ADVANCE_LOOKUP" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
     <sheet name="vlookup" sheetId="3" r:id="rId8"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="13" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="NativeTimeline_Date">#N/A</definedName>
+    <definedName name="Slicer_Region">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="1" r:id="rId15"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId16"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId17"/>
+      </x15:timelineCacheRefs>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -35,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13498" uniqueCount="7520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13589" uniqueCount="7520">
   <si>
     <t>Addition</t>
   </si>
@@ -22605,7 +22627,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22648,8 +22670,15 @@
       <name val="Amasis MT Pro"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -22666,6 +22695,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -22721,12 +22755,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -22792,13 +22827,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -22809,6 +22859,5406 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Book1.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="876300">
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="-60000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pattFill prst="sphere">
+                <a:fgClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:effectLst>
+                <a:glow rad="1016000">
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="38000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="57"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="58"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="59"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="60"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="61"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="62"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="63"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="64"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="65"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="66"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="67"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="68"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="69"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="70"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="71"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="72"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:ofPieChart>
+        <c:ofPieType val="pie"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$4:$A$50</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>South</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>North</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>North</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>North</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>South</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>South</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>North</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>North</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>North</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1/8/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1/15/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1/1/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1/11/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1/12/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1/3/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1/19/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1/7/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1/13/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1/6/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1/13/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1/10/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1/17/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1/22/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1/4/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1/20/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1/6/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1/10/2000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Bass Headphones</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Beard trimmer</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Deodarant</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Earbuds</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Footwear</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Jackets</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mobile</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Shaving cream</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Smartwatch</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Wrist watch</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="94000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+              <a:headEnd type="none" w="lg" len="lg"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Book1.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="8"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="68000"/>
+                        <a:alpha val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="48000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="97000"/>
+                        <a:lumOff val="3000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="0" scaled="1"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="68000"/>
+                        <a:alpha val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="48000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="97000"/>
+                        <a:lumOff val="3000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="0" scaled="1"/>
+                </a:gradFill>
+              </a:rPr>
+              <a:t>region</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="68000"/>
+                        <a:alpha val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="48000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="97000"/>
+                        <a:lumOff val="3000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="0" scaled="1"/>
+                </a:gradFill>
+              </a:rPr>
+              <a:t> chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="68000"/>
+                      <a:alpha val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="48000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="97000"/>
+                      <a:lumOff val="3000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="1"/>
+              </a:gradFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="68000"/>
+                      <a:alpha val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="48000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="97000"/>
+                      <a:lumOff val="3000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="1"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="rnd" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:bevel/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43137"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="4000" sy="4000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$4:$A$50</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>South</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>North</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>North</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>North</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>South</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>South</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>East</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>West</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>North</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>North</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>North</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1/8/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1/15/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1/1/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1/11/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1/12/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1/3/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1/19/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1/7/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1/13/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1/6/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1/13/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1/10/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1/17/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1/22/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1/4/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1/20/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1/6/2000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1/10/2000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Bass Headphones</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Beard trimmer</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Deodarant</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Earbuds</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Footwear</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Jackets</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mobile</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Shaving cream</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Smartwatch</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Wrist watch</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="77"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50025">
+              <a:srgbClr val="D38652"/>
+            </a:gs>
+            <a:gs pos="69000">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="38169">
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="4800000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
+            <a:schemeClr val="accent1">
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Region"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5695950" y="228600"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Date"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer name="Date"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8166100" y="171450"/>
+              <a:ext cx="3333750" cy="1752600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Timeline: Works in Excel 2013 or higher. Do not move or resize.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>996950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1006474</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22883,6 +28333,65 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition pivotCacheId="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="BAPS" refreshedDate="45021.424450115737" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="18">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D19" sheet="Sheet6"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Items" numFmtId="2">
+      <sharedItems count="10">
+        <s v="Bass Headphones"/>
+        <s v="Footwear"/>
+        <s v="Mobile"/>
+        <s v="Smartwatch"/>
+        <s v="Beard trimmer"/>
+        <s v="Deodarant"/>
+        <s v="Shaving cream"/>
+        <s v="Wrist watch"/>
+        <s v="Earbuds"/>
+        <s v="Jackets"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2000-01-01T00:00:00" maxDate="2000-01-23T00:00:00" count="15">
+        <d v="2000-01-08T00:00:00"/>
+        <d v="2000-01-06T00:00:00"/>
+        <d v="2000-01-17T00:00:00"/>
+        <d v="2000-01-10T00:00:00"/>
+        <d v="2000-01-01T00:00:00"/>
+        <d v="2000-01-03T00:00:00"/>
+        <d v="2000-01-19T00:00:00"/>
+        <d v="2000-01-20T00:00:00"/>
+        <d v="2000-01-15T00:00:00"/>
+        <d v="2000-01-13T00:00:00"/>
+        <d v="2000-01-11T00:00:00"/>
+        <d v="2000-01-12T00:00:00"/>
+        <d v="2000-01-07T00:00:00"/>
+        <d v="2000-01-22T00:00:00"/>
+        <d v="2000-01-04T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Region" numFmtId="2">
+      <sharedItems count="4">
+        <s v="East"/>
+        <s v="North"/>
+        <s v="South"/>
+        <s v="West"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2000" maxValue="50000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="2"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -23001,6 +28510,119 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="6000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="8000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="14000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="16000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="18000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="25000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="28000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="30000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="36000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="50000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="38000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="40000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="14"/>
+    <x v="3"/>
+    <n v="42000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
@@ -23100,6 +28722,302 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="A3:B50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="16">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="47">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Price" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="8" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="54" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleDark6" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Region" sourceName="Region">
+  <pivotTables>
+    <pivotTable tabId="10" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2">
+      <items count="4">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Region" cache="Slicer_Region" caption="Region" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Items"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="Region"/>
+    <tableColumn id="4" name="Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Items"/>
+    <tableColumn id="2" name="Date" dataDxfId="1"/>
+    <tableColumn id="3" name="Region"/>
+    <tableColumn id="4" name="Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Items"/>
+    <tableColumn id="2" name="Date" dataDxfId="0"/>
+    <tableColumn id="3" name="Region"/>
+    <tableColumn id="4" name="Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23215,7 +29133,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Top Shadow">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23224,93 +29142,113 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="10000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="34000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="13500"/>
+                <a:satMod val="250000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="60000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+          </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="60000"/>
+                <a:satMod val="160000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="46000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="86000"/>
+                <a:satMod val="160000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="40000"/>
+                <a:satMod val="160000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+          </a:path>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:satMod val="120000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" dist="25400" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="60000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="53975" dist="41275" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="contrasting" dir="t">
+              <a:rot lat="0" lon="0" rev="3600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d prstMaterial="plastic">
+            <a:bevelT w="127000" h="38200" prst="relaxedInset"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -23363,6 +29301,23 @@
 </a:theme>
 </file>
 
+<file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" name="NativeTimeline_Date" sourceName="Date">
+  <pivotTables>
+    <pivotTable tabId="10" name="PivotTable1"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="2" filterType="unknown">
+    <bounds startDate="2000-01-01T00:00:00" endDate="2001-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <timeline name="Date" cache="NativeTimeline_Date" caption="Date" level="2" selectionLevel="2" scrollPosition="2000-01-01T00:00:00" style="TimeSlicerStyleLight6"/>
+</timelines>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M24"/>
@@ -23376,7 +29331,7 @@
     <col min="2" max="2" width="9.54296875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="11" max="11" width="10.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.36328125" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13">
@@ -23747,6 +29702,839 @@
       </c>
       <c r="E24">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20">
+        <v>36538</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>30000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="20">
+        <v>36526</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="20">
+        <v>36536</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="20">
+        <v>36537</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:M50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13">
+      <c r="A3" s="27" t="s">
+        <v>7516</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7519</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="30">
+        <v>36533</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="30">
+        <v>36540</v>
+      </c>
+      <c r="B7" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="30">
+        <v>36526</v>
+      </c>
+      <c r="B10" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="30">
+        <v>36536</v>
+      </c>
+      <c r="B12" s="3">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="30">
+        <v>36537</v>
+      </c>
+      <c r="B14" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="30">
+        <v>36528</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="30">
+        <v>36544</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="30">
+        <v>36532</v>
+      </c>
+      <c r="B22" s="3">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="30">
+        <v>36538</v>
+      </c>
+      <c r="B24" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="30">
+        <v>36531</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="30">
+        <v>36538</v>
+      </c>
+      <c r="B30" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="30">
+        <v>36535</v>
+      </c>
+      <c r="B33" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="30">
+        <v>36542</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="30">
+        <v>36547</v>
+      </c>
+      <c r="B37" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="30">
+        <v>36529</v>
+      </c>
+      <c r="B40" s="3">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="30">
+        <v>36545</v>
+      </c>
+      <c r="B42" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="30">
+        <v>36531</v>
+      </c>
+      <c r="B45" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="30">
+        <v>36535</v>
+      </c>
+      <c r="B48" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="28" t="s">
+        <v>7517</v>
+      </c>
+      <c r="B50" s="3">
+        <v>407000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId5"/>
+      </x15:timelineRefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="23">
+        <v>36533</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="23">
+        <v>36531</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="16">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="23">
+        <v>36542</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="16">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="23">
+        <v>36535</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="16">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="23">
+        <v>36531</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="23">
+        <v>36526</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="16">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="23">
+        <v>36528</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="16">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="23">
+        <v>36544</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="16">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="23">
+        <v>36545</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="23">
+        <v>36535</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="16">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="23">
+        <v>36540</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="16">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="23">
+        <v>36538</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="16">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="23">
+        <v>36538</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="16">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="23">
+        <v>36536</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="16">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="23">
+        <v>36537</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="16">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="23">
+        <v>36532</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="16">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="24">
+        <v>36547</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="16">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="25">
+        <v>36529</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="16">
+        <v>42000</v>
       </c>
     </row>
   </sheetData>
@@ -23764,10 +30552,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" customWidth="1"/>
+    <col min="9" max="13" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:13">
@@ -24309,9 +31097,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -38490,9 +45278,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -53164,9 +59952,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -66642,15 +73430,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K832"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="19"/>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -77480,18 +84268,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B15"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisCol" max="5" activeRow="3" activeCol="1" previousRow="3" previousCol="1" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="2" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
     <col min="3" max="3" width="6.81640625" customWidth="1"/>
     <col min="4" max="4" width="5.81640625" customWidth="1"/>
     <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -77702,13 +84499,13 @@
   <dimension ref="B4:AB34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
     <col min="10" max="10" width="15.08984375" customWidth="1"/>
     <col min="11" max="11" width="14.1796875" customWidth="1"/>
     <col min="12" max="12" width="13.1796875" customWidth="1"/>
@@ -78545,12 +85342,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>